--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H2">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I2">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J2">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>4692.433580086603</v>
+        <v>5652.052965194032</v>
       </c>
       <c r="R2">
-        <v>4692.433580086603</v>
+        <v>50868.4766867463</v>
       </c>
       <c r="S2">
-        <v>0.03942352542838388</v>
+        <v>0.04370087539182236</v>
       </c>
       <c r="T2">
-        <v>0.03942352542838388</v>
+        <v>0.04370087539182237</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H3">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I3">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J3">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>5585.026002888244</v>
+        <v>6214.231528034822</v>
       </c>
       <c r="R3">
-        <v>5585.026002888244</v>
+        <v>55928.0837523134</v>
       </c>
       <c r="S3">
-        <v>0.04692264917236957</v>
+        <v>0.04804756065361125</v>
       </c>
       <c r="T3">
-        <v>0.04692264917236957</v>
+        <v>0.04804756065361125</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H4">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I4">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J4">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>2040.123805054227</v>
+        <v>2506.693005541896</v>
       </c>
       <c r="R4">
-        <v>2040.123805054227</v>
+        <v>22560.23704987706</v>
       </c>
       <c r="S4">
-        <v>0.0171401195846276</v>
+        <v>0.01938139634489049</v>
       </c>
       <c r="T4">
-        <v>0.0171401195846276</v>
+        <v>0.01938139634489049</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>33.1223374800028</v>
+        <v>36.81423266666667</v>
       </c>
       <c r="H5">
-        <v>33.1223374800028</v>
+        <v>110.442698</v>
       </c>
       <c r="I5">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="J5">
-        <v>0.12579914318377</v>
+        <v>0.13776174071044</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>2655.81428270897</v>
+        <v>3444.438012737251</v>
       </c>
       <c r="R5">
-        <v>2655.81428270897</v>
+        <v>30999.94211463527</v>
       </c>
       <c r="S5">
-        <v>0.02231284899838898</v>
+        <v>0.02663190832011593</v>
       </c>
       <c r="T5">
-        <v>0.02231284899838898</v>
+        <v>0.02663190832011593</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H6">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I6">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J6">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>30328.75170109379</v>
+        <v>32870.74392883613</v>
       </c>
       <c r="R6">
-        <v>30328.75170109379</v>
+        <v>295836.6953595252</v>
       </c>
       <c r="S6">
-        <v>0.2548072963618048</v>
+        <v>0.2541519503296543</v>
       </c>
       <c r="T6">
-        <v>0.2548072963618048</v>
+        <v>0.2541519503296544</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H7">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I7">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J7">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>36097.87203053468</v>
+        <v>36140.21569338219</v>
       </c>
       <c r="R7">
-        <v>36097.87203053468</v>
+        <v>325261.9412404397</v>
       </c>
       <c r="S7">
-        <v>0.3032766157725916</v>
+        <v>0.2794310443260079</v>
       </c>
       <c r="T7">
-        <v>0.3032766157725916</v>
+        <v>0.2794310443260079</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H8">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I8">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J8">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>13185.99555368419</v>
+        <v>14578.21864033852</v>
       </c>
       <c r="R8">
-        <v>13185.99555368419</v>
+        <v>131203.9677630467</v>
       </c>
       <c r="S8">
-        <v>0.1107822672685825</v>
+        <v>0.1127167279145101</v>
       </c>
       <c r="T8">
-        <v>0.1107822672685825</v>
+        <v>0.1127167279145101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>214.080632585597</v>
+        <v>214.101181</v>
       </c>
       <c r="H9">
-        <v>214.080632585597</v>
+        <v>642.303543</v>
       </c>
       <c r="I9">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="J9">
-        <v>0.8130815093520176</v>
+        <v>0.8011833806175486</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>17165.4069407227</v>
+        <v>20031.87878681681</v>
       </c>
       <c r="R9">
-        <v>17165.4069407227</v>
+        <v>180286.9090813513</v>
       </c>
       <c r="S9">
-        <v>0.1442153299490387</v>
+        <v>0.1548836580473762</v>
       </c>
       <c r="T9">
-        <v>0.1442153299490387</v>
+        <v>0.1548836580473762</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H10">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I10">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J10">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>36.33597144529985</v>
+        <v>42.70399381858844</v>
       </c>
       <c r="R10">
-        <v>36.33597144529985</v>
+        <v>384.335944367296</v>
       </c>
       <c r="S10">
-        <v>0.0003052770102741382</v>
+        <v>0.0003301812499089382</v>
       </c>
       <c r="T10">
-        <v>0.0003052770102741382</v>
+        <v>0.0003301812499089382</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H11">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I11">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J11">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>43.24778217925441</v>
+        <v>46.95152476359824</v>
       </c>
       <c r="R11">
-        <v>43.24778217925441</v>
+        <v>422.5637228723841</v>
       </c>
       <c r="S11">
-        <v>0.000363346654004973</v>
+        <v>0.0003630225593754021</v>
       </c>
       <c r="T11">
-        <v>0.000363346654004973</v>
+        <v>0.0003630225593754021</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H12">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I12">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J12">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>15.79774738632715</v>
+        <v>18.93927804161778</v>
       </c>
       <c r="R12">
-        <v>15.79774738632715</v>
+        <v>170.45350237456</v>
       </c>
       <c r="S12">
-        <v>0.0001327249251729545</v>
+        <v>0.0001464358233733223</v>
       </c>
       <c r="T12">
-        <v>0.0001327249251729545</v>
+        <v>0.0001464358233733223</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.256483610973723</v>
+        <v>0.2781493333333334</v>
       </c>
       <c r="H13">
-        <v>0.256483610973723</v>
+        <v>0.8344480000000001</v>
       </c>
       <c r="I13">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="J13">
-        <v>0.0009741286683240155</v>
+        <v>0.001040856580779521</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>20.5653612978261</v>
+        <v>26.02439511983467</v>
       </c>
       <c r="R13">
-        <v>20.5653612978261</v>
+        <v>234.219556078512</v>
       </c>
       <c r="S13">
-        <v>0.0001727800788719498</v>
+        <v>0.0002012169481218586</v>
       </c>
       <c r="T13">
-        <v>0.0001727800788719498</v>
+        <v>0.0002012169481218586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H14">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I14">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J14">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>2243.476682088353</v>
+        <v>2462.239731907378</v>
       </c>
       <c r="R14">
-        <v>2243.476682088353</v>
+        <v>22160.15758716641</v>
       </c>
       <c r="S14">
-        <v>0.0188485907183931</v>
+        <v>0.01903768991046327</v>
       </c>
       <c r="T14">
-        <v>0.0188485907183931</v>
+        <v>0.01903768991046327</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H15">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I15">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J15">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>2670.229720354538</v>
+        <v>2707.145149881581</v>
       </c>
       <c r="R15">
-        <v>2670.229720354538</v>
+        <v>24364.30634893423</v>
       </c>
       <c r="S15">
-        <v>0.02243396043510554</v>
+        <v>0.02093126401877055</v>
       </c>
       <c r="T15">
-        <v>0.02243396043510554</v>
+        <v>0.02093126401877056</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H16">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I16">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J16">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>975.3937071450356</v>
+        <v>1092.006595116487</v>
       </c>
       <c r="R16">
-        <v>975.3937071450356</v>
+        <v>9828.059356048379</v>
       </c>
       <c r="S16">
-        <v>0.008194779523252886</v>
+        <v>0.008443240789516474</v>
       </c>
       <c r="T16">
-        <v>0.008194779523252886</v>
+        <v>0.008443240789516476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.8359602803959</v>
+        <v>16.037618</v>
       </c>
       <c r="H17">
-        <v>15.8359602803959</v>
+        <v>48.112854</v>
       </c>
       <c r="I17">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123193</v>
       </c>
       <c r="J17">
-        <v>0.06014521879588827</v>
+        <v>0.06001402209123194</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>1269.758498127706</v>
+        <v>1500.522408632914</v>
       </c>
       <c r="R17">
-        <v>1269.758498127706</v>
+        <v>13504.70167769622</v>
       </c>
       <c r="S17">
-        <v>0.01066788811913674</v>
+        <v>0.01160182737248164</v>
       </c>
       <c r="T17">
-        <v>0.01066788811913674</v>
+        <v>0.01160182737248164</v>
       </c>
     </row>
   </sheetData>
